--- a/root_dict.xlsx
+++ b/root_dict.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="248">
   <si>
     <t xml:space="preserve">коха</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чому</t>
   </si>
   <si>
     <t xml:space="preserve">ДХ</t>
@@ -856,15 +862,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.87044534412956"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.37651821862348"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,6 +991,25 @@
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1005,13 +1030,13 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.87044534412956"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.37651821862348"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,13 +1058,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,13 +1072,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>3</v>
@@ -1299,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,13 +1352,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,13 +1380,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +1394,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>3</v>
@@ -1383,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,13 +1422,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,13 +1436,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,13 +1464,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,13 +1492,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,13 +1506,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,13 +1548,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,13 +1562,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,13 +1576,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,13 +1590,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,13 +1604,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,13 +1618,13 @@
         <v>2</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,13 +1632,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,13 +1660,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
@@ -1691,13 +1716,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,13 +1730,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,13 +1744,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,13 +1800,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,13 +1814,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,13 +1828,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,13 +1842,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,13 +1856,13 @@
         <v>6</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,13 +1884,13 @@
         <v>6</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +1898,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>12</v>
@@ -1887,13 +1912,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,13 +1940,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,13 +1954,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,13 +1968,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>12</v>
@@ -1971,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,10 +2136,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>12</v>
@@ -2125,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2178,10 @@
         <v>9</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>16</v>
@@ -2167,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,13 +2206,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>16</v>
@@ -2209,13 +2234,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>16</v>
@@ -2251,13 +2276,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,10 +2290,10 @@
         <v>9</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,13 +2301,13 @@
         <v>9</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,13 +2315,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,13 +2343,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,13 +2357,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>12</v>
@@ -2360,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,13 +2399,13 @@
         <v>10</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,13 +2413,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,13 +2427,13 @@
         <v>10</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,13 +2441,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
